--- a/results/computational_findings_s4.2.xlsx
+++ b/results/computational_findings_s4.2.xlsx
@@ -512,7 +512,7 @@
         <v>800</v>
       </c>
       <c r="D3" t="n">
-        <v>210.35</v>
+        <v>225.15</v>
       </c>
       <c r="E3" t="n">
         <v>859.73</v>
@@ -566,7 +566,7 @@
         <v>800</v>
       </c>
       <c r="D5" t="n">
-        <v>217.72</v>
+        <v>229.38</v>
       </c>
       <c r="E5" t="n">
         <v>882.23</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>800</v>
       </c>
       <c r="D6" t="n">
-        <v>222.89</v>
+        <v>232.67</v>
       </c>
       <c r="E6" t="n">
         <v>899.73</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.86</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="7">
@@ -620,10 +620,10 @@
         <v>800</v>
       </c>
       <c r="D7" t="n">
-        <v>223.77</v>
+        <v>232.77</v>
       </c>
       <c r="E7" t="n">
-        <v>932.23</v>
+        <v>927.23</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -700,14 +700,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="C3" t="n">
         <v>4.82</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-2.90</t>
+          <t>-2.91</t>
         </is>
       </c>
     </row>
@@ -736,14 +736,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.082780361175537</v>
+        <v>2.152554273605347</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>-2.15</t>
         </is>
       </c>
     </row>

--- a/results/computational_findings_s4.2.xlsx
+++ b/results/computational_findings_s4.2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="tab4. experimental design" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="tab5. mclp vs lamoscad" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="tab6. asset allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tab4. experimental design" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tab5. mclp vs lamoscad" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tab6. asset allocation" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -736,14 +736,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.152554273605347</v>
+        <v>3.342804908752441</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-2.15</t>
+          <t>-3.34</t>
         </is>
       </c>
     </row>

--- a/results/computational_findings_s4.2.xlsx
+++ b/results/computational_findings_s4.2.xlsx
@@ -740,7 +740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,16 +769,6 @@
           <t>runtime_milp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>milp_obj1_from_mp</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>runtime_BnC</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -792,16 +782,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>339.08</v>
+        <v>355.21</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>352.65</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.33</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +800,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>339.08</v>
+        <v>374.29</v>
       </c>
       <c r="D3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="E3" t="n">
-        <v>352.65</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.33</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4">
@@ -840,16 +818,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>350.34</v>
+        <v>378</v>
       </c>
       <c r="D4" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="E4" t="n">
-        <v>354.16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.48</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="5">
@@ -864,16 +836,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>350.53</v>
+        <v>378.45</v>
       </c>
       <c r="D5" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>354.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.84</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="6">
@@ -888,16 +854,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>474.11</v>
+        <v>497.83</v>
       </c>
       <c r="D6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>491.52</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.46</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="7">
@@ -912,16 +872,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>474.1</v>
+        <v>525.51</v>
       </c>
       <c r="D7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E7" t="n">
-        <v>491.52</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8">
@@ -936,16 +890,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>489.13</v>
+        <v>529.77</v>
       </c>
       <c r="D8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>494.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.79</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -960,16 +908,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>489.55</v>
+        <v>530.71</v>
       </c>
       <c r="D9" t="n">
-        <v>52.26</v>
-      </c>
-      <c r="E9" t="n">
-        <v>494.09</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.21</v>
+        <v>40.44</v>
       </c>
     </row>
     <row r="10">
@@ -984,16 +926,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>663.4400000000001</v>
+        <v>686.36</v>
       </c>
       <c r="D10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>690.11</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.67</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="11">
@@ -1008,16 +944,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>663.4299999999999</v>
+        <v>730.05</v>
       </c>
       <c r="D11" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="E11" t="n">
-        <v>690.11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.72</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="12">
@@ -1032,16 +962,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>683.25</v>
+        <v>736.78</v>
       </c>
       <c r="D12" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="E12" t="n">
-        <v>693.15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.21</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="13">
@@ -1056,16 +980,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>683.8</v>
+        <v>737.86</v>
       </c>
       <c r="D13" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="E13" t="n">
-        <v>693.23</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.72</v>
+        <v>106.48</v>
       </c>
     </row>
     <row r="14">
@@ -1080,16 +998,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>850.64</v>
+        <v>884.89</v>
       </c>
       <c r="D14" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="E14" t="n">
-        <v>880.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.83</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="15">
@@ -1104,16 +1016,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>850.65</v>
+        <v>934.8200000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="E15" t="n">
-        <v>880.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.85</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="16">
@@ -1128,16 +1034,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>874.12</v>
+        <v>941.52</v>
       </c>
       <c r="D16" t="n">
-        <v>36.17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>884.4400000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.37</v>
+        <v>47.38</v>
       </c>
     </row>
     <row r="17">
@@ -1152,16 +1052,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>874.79</v>
+        <v>942.86</v>
       </c>
       <c r="D17" t="n">
-        <v>63.06</v>
-      </c>
-      <c r="E17" t="n">
-        <v>884.55</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2.11</v>
+        <v>135.09</v>
       </c>
     </row>
     <row r="18">
@@ -1176,16 +1070,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1287.63</v>
+        <v>1349.45</v>
       </c>
       <c r="D18" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1331.18</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.21</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1200,16 +1088,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1287.61</v>
+        <v>1410.71</v>
       </c>
       <c r="D19" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1331.18</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.28</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="20">
@@ -1224,16 +1106,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1321.41</v>
+        <v>1422.1</v>
       </c>
       <c r="D20" t="n">
-        <v>62.72</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1336.76</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.95</v>
+        <v>56.97</v>
       </c>
     </row>
     <row r="21">
@@ -1248,16 +1124,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1322.43</v>
+        <v>1424.08</v>
       </c>
       <c r="D21" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1336.92</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.33</v>
+        <v>606.0599999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1272,16 +1142,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1700.4</v>
+        <v>1780.07</v>
       </c>
       <c r="D22" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1770.69</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.93</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="23">
@@ -1296,16 +1160,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1700.39</v>
+        <v>1873.17</v>
       </c>
       <c r="D23" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1770.69</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.81</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="24">
@@ -1320,16 +1178,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1758.36</v>
+        <v>1892.88</v>
       </c>
       <c r="D24" t="n">
-        <v>63.53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1778.14</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2.45</v>
+        <v>363.72</v>
       </c>
     </row>
     <row r="25">
@@ -1344,16 +1196,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1759.49</v>
+        <v>1895.42</v>
       </c>
       <c r="D25" t="n">
-        <v>65.45</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1778.35</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3.99</v>
+        <v>609.5</v>
       </c>
     </row>
   </sheetData>
